--- a/templates/dataplant/GEO/GEO_-_RNA_assays.xlsx
+++ b/templates/dataplant/GEO/GEO_-_RNA_assays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD8171-B192-4FA3-B3EA-05B696B83415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A23C5A6-8929-4BE3-9912-8AF80C5FF0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,12 +253,6 @@
     <t>Transcriptomics</t>
   </si>
   <si>
-    <t>mRNASeq</t>
-  </si>
-  <si>
-    <t>RNASeq</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -738,6 +732,12 @@
   </si>
   <si>
     <t>mandatory</t>
+  </si>
+  <si>
+    <t>RNA-Seq</t>
+  </si>
+  <si>
+    <t>EFO:0008896</t>
   </si>
 </sst>
 </file>
@@ -1512,22 +1512,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
       <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" t="s">
-        <v>99</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1539,473 +1539,473 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>146</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>147</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>149</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>151</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>152</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>153</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>154</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>155</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>156</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>157</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>158</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>159</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>160</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>161</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>162</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>163</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>164</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>165</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>166</v>
       </c>
-      <c r="AG1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>168</v>
-      </c>
       <c r="AI1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ1"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI4" s="12"/>
       <c r="AJ4"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AH5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5"/>
@@ -2021,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA628F8D-856A-498A-8154-924F19E80D38}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2033,61 +2033,61 @@
     <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2095,91 +2095,88 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="F12" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2187,7 +2184,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2201,7 +2198,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2227,36 +2224,36 @@
         <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{FC8AF2EE-3481-4D7F-AF7D-BA30FB076A9C}"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{FC8AF2EE-3481-4D7F-AF7D-BA30FB076A9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -2289,40 +2286,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2330,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -2349,36 +2346,36 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2386,29 +2383,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -2418,29 +2415,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -2450,29 +2447,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2482,31 +2479,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2514,27 +2511,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -2544,27 +2541,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -2574,29 +2571,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -2606,27 +2603,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -2636,27 +2633,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -2666,64 +2663,64 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="L14" s="11"/>
     </row>
@@ -2732,30 +2729,30 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="L15" s="11"/>
     </row>
@@ -2764,27 +2761,27 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2794,55 +2791,55 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>

--- a/templates/dataplant/GEO/GEO_-_RNA_assays.xlsx
+++ b/templates/dataplant/GEO/GEO_-_RNA_assays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A23C5A6-8929-4BE3-9912-8AF80C5FF0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3123DC5C-9092-4E0C-8B34-1BFE67DE1AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="168">
   <si>
     <t>Source Name</t>
   </si>
@@ -136,12 +136,6 @@
     <t>Parameter [Library strategy]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000035)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000035)</t>
-  </si>
-  <si>
     <t>Parameter [Library Selection]</t>
   </si>
   <si>
@@ -287,9 +281,6 @@
   </si>
   <si>
     <t>Review comments</t>
-  </si>
-  <si>
-    <t>NFDI4PSO</t>
   </si>
   <si>
     <t>user-specific</t>
@@ -440,18 +431,6 @@
 </t>
   </si>
   <si>
-    <t>RNA-Seq strategy</t>
-  </si>
-  <si>
-    <t>ChIP-Seq strategy</t>
-  </si>
-  <si>
-    <t>ssRNA-seq</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000009</t>
-  </si>
-  <si>
     <t>paired-end</t>
   </si>
   <si>
@@ -738,6 +717,15 @@
   </si>
   <si>
     <t>EFO:0008896</t>
+  </si>
+  <si>
+    <t>Parameter [library strategy]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000035)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000035)</t>
   </si>
 </sst>
 </file>
@@ -970,7 +958,16 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{3A68927A-4D0F-438E-A11A-69BC80D82D4C}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
@@ -1083,39 +1080,39 @@
   <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{DDD81922-E978-4A5A-A247-30D8EC830850}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{7CA79E74-6A6D-4226-9CA5-F112305A31B1}" name="Protocol Type"/>
-    <tableColumn id="44" xr3:uid="{7D6AC9A3-AD92-4DFB-90A6-E3298ED27C46}" name="Term Source REF (DPBO:1000161)" dataDxfId="28"/>
-    <tableColumn id="45" xr3:uid="{23A6DD84-4262-4DF8-8DB3-AC87CDC85432}" name="Term Accession Number (DPBO:1000161)" dataDxfId="27"/>
-    <tableColumn id="47" xr3:uid="{BE14D144-54FC-4C26-BA6C-E7FB688C0692}" name="Parameter [library layout]" dataDxfId="26"/>
-    <tableColumn id="48" xr3:uid="{D1FEDF66-D3B4-454A-9971-A74272B91681}" name="Term Source REF (DPBO:0000015)" dataDxfId="25"/>
-    <tableColumn id="49" xr3:uid="{BE7F58A1-1721-4B1B-8584-87D53E184A67}" name="Term Accession Number (DPBO:0000015)" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{447A413B-B655-4E5D-BC02-D7557A9E4C62}" name="Parameter [Library strategy]"/>
-    <tableColumn id="4" xr3:uid="{9BBFE835-D0D7-4C6D-A1A5-68598432EDA2}" name="Term Source REF (NFDI4PSO:0000035)"/>
-    <tableColumn id="5" xr3:uid="{657A280A-234C-47CD-8764-45FAAED69AFE}" name="Term Accession Number (NFDI4PSO:0000035)"/>
+    <tableColumn id="44" xr3:uid="{7D6AC9A3-AD92-4DFB-90A6-E3298ED27C46}" name="Term Source REF (DPBO:1000161)" dataDxfId="31"/>
+    <tableColumn id="45" xr3:uid="{23A6DD84-4262-4DF8-8DB3-AC87CDC85432}" name="Term Accession Number (DPBO:1000161)" dataDxfId="30"/>
+    <tableColumn id="47" xr3:uid="{BE14D144-54FC-4C26-BA6C-E7FB688C0692}" name="Parameter [library layout]" dataDxfId="29"/>
+    <tableColumn id="48" xr3:uid="{D1FEDF66-D3B4-454A-9971-A74272B91681}" name="Term Source REF (DPBO:0000015)" dataDxfId="28"/>
+    <tableColumn id="49" xr3:uid="{BE7F58A1-1721-4B1B-8584-87D53E184A67}" name="Term Accession Number (DPBO:0000015)" dataDxfId="27"/>
     <tableColumn id="6" xr3:uid="{4CE26773-A7A5-48E1-AF87-A987717F87AF}" name="Parameter [library preparation kit]"/>
-    <tableColumn id="7" xr3:uid="{C9CAFD52-851B-47B7-9724-185FBDC6731F}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{86669995-DC5A-4D36-9C12-062BBD770FFC}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{25A2DDFD-5645-459D-9492-E2376966E098}" name="Parameter [library RNA amount]" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{A63BF9AA-E389-4850-BE04-3A61D6829823}" name="Term Source REF (DPBO:0000016)" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{6F06800E-DBB1-4779-8CEA-FF7994D2B9CE}" name="Term Accession Number (DPBO:0000016)" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{AAC066E6-D8FC-4959-ABF5-9DB19875E13E}" name="Parameter [next generation sequencing instrument model]" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{90950E80-0B14-4569-995E-2A698BE81755}" name="Term Source REF (DPBO:0000040)" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{2EF5A91C-2CB0-4443-890C-A4746CFA36BD}" name="Term Accession Number (DPBO:0000040)" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{A444C9A6-9C8F-45C0-8C28-FF62823FD432}" name="Parameter [base-calling software]" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{5EDCEE64-FCBF-4F61-B13E-36A29C04719B}" name="Term Source REF (DPBO:0000017)" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{09EA8B34-A052-42CB-AC21-BE8E34F13F0C}" name="Term Accession Number (DPBO:0000017)" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{BB95E6EA-F2B2-4A59-A524-578656943233}" name="Parameter [base-calling software version]" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{44757A0F-8F7F-4AB0-8C1C-BCA36FB5991D}" name="Term Source REF (DPBO:0000018)" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{EE639FE6-614E-42AC-AAF7-4C148DEA711A}" name="Term Accession Number (DPBO:0000018)" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{3951B4F5-C303-4461-829E-F5FBDAFBD188}" name="Parameter [base-calling software parameters]" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{667A80CF-70CB-4C05-94E1-21A9CAA333CA}" name="Term Source REF (DPBO:0000019)" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{F2777F6A-50ED-40CD-A644-BE89DD6EF357}" name="Term Accession Number (DPBO:0000019)" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{9F244CBA-AA48-4B66-B1E8-5133EBEEE49D}" name="Parameter [library strand]" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{FDD32D84-1CF8-4EC0-8037-AA4B3A9099CC}" name="Term Source REF (DPBO:0000020)" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{355EC565-C0B9-4749-B627-37A058A18004}" name="Term Accession Number (DPBO:0000020)" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{0179074D-659B-42D7-A072-FFFD23599315}" name="Parameter [raw data file format]" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{201EE931-0E98-4E3F-BD85-C20EF806E713}" name="Term Source REF (DPBO:0000021)" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{F6969679-FC1E-4AC8-9B23-0BF478C792AC}" name="Term Accession Number (DPBO:0000021)" dataDxfId="1"/>
-    <tableColumn id="46" xr3:uid="{1273654C-65DC-44DB-9A79-9BE76103F8D4}" name="Raw Data File" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{C9CAFD52-851B-47B7-9724-185FBDC6731F}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{86669995-DC5A-4D36-9C12-062BBD770FFC}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{5E9E4B69-8357-4CDF-BCCF-88961FC3406A}" name="Parameter [library strategy]" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{60AF5B95-0138-4770-8D0C-92D0AB840FDB}" name="Term Source REF (DPBO:0000035)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{4EC1AAF7-5FAC-4F24-8E79-828731209BE8}" name="Term Accession Number (DPBO:0000035)" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{25A2DDFD-5645-459D-9492-E2376966E098}" name="Parameter [library RNA amount]" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{A63BF9AA-E389-4850-BE04-3A61D6829823}" name="Term Source REF (DPBO:0000016)" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{6F06800E-DBB1-4779-8CEA-FF7994D2B9CE}" name="Term Accession Number (DPBO:0000016)" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{AAC066E6-D8FC-4959-ABF5-9DB19875E13E}" name="Parameter [next generation sequencing instrument model]" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{90950E80-0B14-4569-995E-2A698BE81755}" name="Term Source REF (DPBO:0000040)" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{2EF5A91C-2CB0-4443-890C-A4746CFA36BD}" name="Term Accession Number (DPBO:0000040)" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{A444C9A6-9C8F-45C0-8C28-FF62823FD432}" name="Parameter [base-calling software]" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{5EDCEE64-FCBF-4F61-B13E-36A29C04719B}" name="Term Source REF (DPBO:0000017)" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{09EA8B34-A052-42CB-AC21-BE8E34F13F0C}" name="Term Accession Number (DPBO:0000017)" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{BB95E6EA-F2B2-4A59-A524-578656943233}" name="Parameter [base-calling software version]" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{44757A0F-8F7F-4AB0-8C1C-BCA36FB5991D}" name="Term Source REF (DPBO:0000018)" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{EE639FE6-614E-42AC-AAF7-4C148DEA711A}" name="Term Accession Number (DPBO:0000018)" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{3951B4F5-C303-4461-829E-F5FBDAFBD188}" name="Parameter [base-calling software parameters]" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{667A80CF-70CB-4C05-94E1-21A9CAA333CA}" name="Term Source REF (DPBO:0000019)" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{F2777F6A-50ED-40CD-A644-BE89DD6EF357}" name="Term Accession Number (DPBO:0000019)" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{9F244CBA-AA48-4B66-B1E8-5133EBEEE49D}" name="Parameter [library strand]" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{FDD32D84-1CF8-4EC0-8037-AA4B3A9099CC}" name="Term Source REF (DPBO:0000020)" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{355EC565-C0B9-4749-B627-37A058A18004}" name="Term Accession Number (DPBO:0000020)" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{0179074D-659B-42D7-A072-FFFD23599315}" name="Parameter [raw data file format]" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{201EE931-0E98-4E3F-BD85-C20EF806E713}" name="Term Source REF (DPBO:0000021)" dataDxfId="5"/>
+    <tableColumn id="29" xr3:uid="{F6969679-FC1E-4AC8-9B23-0BF478C792AC}" name="Term Accession Number (DPBO:0000021)" dataDxfId="4"/>
+    <tableColumn id="46" xr3:uid="{1273654C-65DC-44DB-9A79-9BE76103F8D4}" name="Raw Data File" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1419,7 +1416,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="566" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
@@ -1452,25 +1449,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="38.109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="38.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="41" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.6640625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="38.109375" hidden="1" customWidth="1"/>
@@ -1512,500 +1509,509 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="K1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" t="s">
         <v>143</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>144</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>145</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>146</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>147</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>149</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>150</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>151</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>152</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>153</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>154</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>155</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AF1" t="s">
         <v>157</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AG1" t="s">
         <v>158</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AH1" t="s">
         <v>159</v>
       </c>
-      <c r="AB1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>166</v>
-      </c>
       <c r="AI1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AJ1"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="L2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="L3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="L4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI4" s="12"/>
       <c r="AJ4"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="L5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5"/>
@@ -2023,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA628F8D-856A-498A-8154-924F19E80D38}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,219 +2041,219 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B27" s="9"/>
     </row>
@@ -2286,40 +2292,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2327,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -2346,36 +2352,36 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2383,463 +2389,463 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
